--- a/Jun 2019 to Jul 2019 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Jun 2019 to Jul 2019 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209FD1FA-B960-4A0C-AF7A-3A37094A243E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E315C-E661-4FD6-980B-3F54F4186192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,19 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="74">
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Field Name</t>
-  </si>
-  <si>
-    <t>File 1 Value</t>
-  </si>
-  <si>
-    <t>File 2 Value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="73">
   <si>
     <t>Comment</t>
   </si>
@@ -245,6 +233,15 @@
   </si>
   <si>
     <t>Network moved to a different Add-On Package within the Service</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Old Value</t>
+  </si>
+  <si>
+    <t>New Value</t>
   </si>
 </sst>
 </file>
@@ -736,7 +733,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1096,7 +1093,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1110,160 +1107,151 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1271,13 +1259,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1285,13 +1273,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1299,349 +1287,346 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
         <v>68</v>
@@ -1649,55 +1634,64 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
         <v>68</v>
@@ -1705,24 +1699,27 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E42" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E42">
-      <sortCondition ref="E2:E42"/>
       <sortCondition ref="B2:B42"/>
       <sortCondition ref="A2:A42"/>
+      <sortCondition ref="E2:E42"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jun 2019 to Jul 2019 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Jun 2019 to Jul 2019 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E315C-E661-4FD6-980B-3F54F4186192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E34A13-9CDB-4A71-A67E-76DF69D6CA86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="74">
   <si>
     <t>Comment</t>
   </si>
@@ -214,27 +214,6 @@
     <t>Zee Familia</t>
   </si>
   <si>
-    <t>New Network Add to the Database in Jul 2019</t>
-  </si>
-  <si>
-    <t>Previous Network removed from the database in Jul 2019</t>
-  </si>
-  <si>
-    <t>Modified an Alias for a Network</t>
-  </si>
-  <si>
-    <t>Network added to Service (Base or Add-On Package) in Jul 2019</t>
-  </si>
-  <si>
-    <t>Name of add-on package changed</t>
-  </si>
-  <si>
-    <t>Network removed from Service (Base or Add-On Package) in Jul 2019</t>
-  </si>
-  <si>
-    <t>Network moved to a different Add-On Package within the Service</t>
-  </si>
-  <si>
     <t>Service</t>
   </si>
   <si>
@@ -242,6 +221,30 @@
   </si>
   <si>
     <t>New Value</t>
+  </si>
+  <si>
+    <t>Alias Changed for Network</t>
+  </si>
+  <si>
+    <t>Network Removed from Database</t>
+  </si>
+  <si>
+    <t>New Network Added to Database</t>
+  </si>
+  <si>
+    <t>Network Moved from One Add-On Package to Another Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Added to Base Service</t>
+  </si>
+  <si>
+    <t>Network Added to Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Removed from Base Service</t>
+  </si>
+  <si>
+    <t>Name of Add-On Package Changed</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1096,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1110,13 +1113,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1133,7 +1136,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1150,7 +1153,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1164,7 +1167,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1181,7 +1184,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1195,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1209,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1223,7 +1226,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1237,7 +1240,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1251,7 +1254,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1265,7 +1268,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1279,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1293,7 +1296,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1307,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1321,7 +1324,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1335,7 +1338,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1349,7 +1352,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1363,7 +1366,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1377,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1391,7 +1394,7 @@
         <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1405,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1419,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1433,7 +1436,7 @@
         <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1447,7 +1450,7 @@
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1461,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1475,7 +1478,7 @@
         <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1489,7 +1492,7 @@
         <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1503,7 +1506,7 @@
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1517,7 +1520,7 @@
         <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1531,7 +1534,7 @@
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1545,7 +1548,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1559,7 +1562,7 @@
         <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1573,7 +1576,7 @@
         <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1587,7 +1590,7 @@
         <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1601,7 +1604,7 @@
         <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1615,7 +1618,7 @@
         <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1629,7 +1632,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1663,7 +1666,7 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1680,7 +1683,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1694,7 +1697,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1711,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
